--- a/docs/otis.xlsx
+++ b/docs/otis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\OpenTTD_Tools_and_Code\Projects\otis_ri_testbed\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\OTIS_RI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8169D91D-2D43-4E57-A5A7-6A1DE7F6ED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C20F0-D1A6-47D5-9BEC-40FE388A823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="1" xr2:uid="{F14238E8-7359-4A23-95C3-B534CD4647A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" xr2:uid="{F14238E8-7359-4A23-95C3-B534CD4647A9}"/>
   </bookViews>
   <sheets>
     <sheet name="cargo" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="485">
   <si>
     <t>cargo_icon_x</t>
   </si>
@@ -1928,9 +1928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2E412-BEDD-4897-B555-855B4B690393}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K34" sqref="K34"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,8 +4179,8 @@
       <c r="N32" s="2">
         <v>102</v>
       </c>
-      <c r="O32" s="10" t="b">
-        <v>1</v>
+      <c r="O32" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="P32" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4675,8 +4675,8 @@
       <c r="N39" s="2">
         <v>102</v>
       </c>
-      <c r="O39" s="10" t="b">
-        <v>1</v>
+      <c r="O39" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="P39" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6358,7 +6358,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6728,7 +6728,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -7071,7 +7071,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7435,7 +7435,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -7766,7 +7766,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8127,7 +8127,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -8458,7 +8458,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8831,7 +8831,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -9171,7 +9171,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9532,7 +9532,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -9866,7 +9866,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10218,7 +10218,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -10549,7 +10549,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10904,7 +10904,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -11235,7 +11235,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11599,7 +11599,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -11933,7 +11933,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12303,7 +12303,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -12637,7 +12637,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12986,7 +12986,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -13316,7 +13316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B42E960-D72E-48CD-A396-7A854E37C965}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -14833,7 +14833,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15188,7 +15188,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -15519,7 +15519,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15874,7 +15874,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -16205,7 +16205,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16572,7 +16572,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -16903,7 +16903,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17258,7 +17258,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -17589,7 +17589,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17944,7 +17944,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -18275,7 +18275,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18624,7 +18624,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -18955,7 +18955,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19304,7 +19304,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -19635,7 +19635,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19984,7 +19984,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -20315,7 +20315,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20664,7 +20664,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -20995,7 +20995,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21350,7 +21350,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -21684,7 +21684,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22039,7 +22039,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -22373,7 +22373,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22728,7 +22728,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -23062,7 +23062,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23417,7 +23417,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -23751,7 +23751,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24106,7 +24106,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -24440,7 +24440,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24819,7 +24819,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>
@@ -25153,7 +25153,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25526,7 +25526,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>343</v>

--- a/docs/otis.xlsx
+++ b/docs/otis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\OTIS_RI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C0FC9E-343F-48C5-9648-98605C04F9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92B61BC-0374-475C-8E6B-6169B4427E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" xr2:uid="{F14238E8-7359-4A23-95C3-B534CD4647A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" firstSheet="8" activeTab="17" xr2:uid="{F14238E8-7359-4A23-95C3-B534CD4647A9}"/>
   </bookViews>
   <sheets>
     <sheet name="cargo" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="537">
   <si>
     <t>cargo_icon_x</t>
   </si>
@@ -2077,11 +2077,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2E412-BEDD-4897-B555-855B4B690393}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K10" sqref="K10:K11"/>
+      <selection pane="topRight" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2177,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>UPPER(A2)</f>
+        <f t="shared" ref="B2:B33" si="0">UPPER(A2)</f>
         <v>WASTE</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2219,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="2" t="str">
-        <f>A2</f>
+        <f t="shared" ref="P2:P33" si="1">A2</f>
         <v>waste</v>
       </c>
       <c r="Q2" s="2">
@@ -2232,7 +2233,7 @@
         <v>169</v>
       </c>
       <c r="T2" s="2" t="str">
-        <f>C2</f>
+        <f t="shared" ref="T2:T7" si="2">C2</f>
         <v>WSTE</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -2250,7 +2251,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>UPPER(A3)</f>
+        <f t="shared" si="0"/>
         <v>STEEL</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2293,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="2" t="str">
-        <f>A3</f>
+        <f t="shared" si="1"/>
         <v>steel</v>
       </c>
       <c r="Q3" s="2">
@@ -2306,7 +2307,7 @@
         <v>158</v>
       </c>
       <c r="T3" s="2" t="str">
-        <f>C3</f>
+        <f t="shared" si="2"/>
         <v>STEL</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -2324,7 +2325,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>UPPER(A4)</f>
+        <f t="shared" si="0"/>
         <v>RECYCLED_PAPER</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2367,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="2" t="str">
-        <f>A4</f>
+        <f t="shared" si="1"/>
         <v>recycled_paper</v>
       </c>
       <c r="Q4" s="2">
@@ -2380,7 +2381,7 @@
         <v>195</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>C4</f>
+        <f t="shared" si="2"/>
         <v>RPAP</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -2398,7 +2399,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>UPPER(A5)</f>
+        <f t="shared" si="0"/>
         <v>MAIL</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2441,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="2" t="str">
-        <f>A5</f>
+        <f t="shared" si="1"/>
         <v>mail</v>
       </c>
       <c r="Q5" s="2">
@@ -2454,7 +2455,7 @@
         <v>154</v>
       </c>
       <c r="T5" s="2" t="str">
-        <f>C5</f>
+        <f t="shared" si="2"/>
         <v>MAIL</v>
       </c>
       <c r="U5" s="2" t="s">
@@ -2467,12 +2468,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>UPPER(A6)</f>
+        <f t="shared" si="0"/>
         <v>URANIUM</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2515,7 +2516,7 @@
         <v>331</v>
       </c>
       <c r="P6" s="2" t="str">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>uranium</v>
       </c>
       <c r="Q6" s="2">
@@ -2528,7 +2529,7 @@
         <v>187</v>
       </c>
       <c r="T6" s="2" t="str">
-        <f>C6</f>
+        <f t="shared" si="2"/>
         <v>URAN</v>
       </c>
       <c r="U6" s="2" t="s">
@@ -2546,7 +2547,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>UPPER(A7)</f>
+        <f t="shared" si="0"/>
         <v>PAPER_PRODUCTS</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2589,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="2" t="str">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v>paper_products</v>
       </c>
       <c r="Q7" s="2">
@@ -2602,7 +2603,7 @@
         <v>178</v>
       </c>
       <c r="T7" s="2" t="str">
-        <f>C7</f>
+        <f t="shared" si="2"/>
         <v>PAPR</v>
       </c>
       <c r="U7" s="2" t="s">
@@ -2620,7 +2621,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>UPPER(A8)</f>
+        <f t="shared" si="0"/>
         <v>POWER_CELLS</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2663,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="2" t="str">
-        <f>A8</f>
+        <f t="shared" si="1"/>
         <v>power_cells</v>
       </c>
       <c r="Q8" s="2">
@@ -2693,7 +2694,7 @@
         <v>101</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>UPPER(A9)</f>
+        <f t="shared" si="0"/>
         <v>WOOD_PRODUCTS</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2736,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="2" t="str">
-        <f>A9</f>
+        <f t="shared" si="1"/>
         <v>wood_products</v>
       </c>
       <c r="Q9" s="2">
@@ -2762,12 +2763,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>UPPER(A10)</f>
+        <f t="shared" si="0"/>
         <v>ORGANIC_WASTE</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2807,7 +2808,7 @@
         <v>331</v>
       </c>
       <c r="P10" s="2" t="str">
-        <f>A10</f>
+        <f t="shared" si="1"/>
         <v>organic_waste</v>
       </c>
       <c r="Q10" s="2">
@@ -2837,7 +2838,7 @@
         <v>144</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>UPPER(A11)</f>
+        <f t="shared" si="0"/>
         <v>MANUFACTURING_SUPPLIES</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2880,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="2" t="str">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v>manufacturing_supplies</v>
       </c>
       <c r="Q11" s="2">
@@ -2910,7 +2911,7 @@
         <v>97</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>UPPER(A12)</f>
+        <f t="shared" si="0"/>
         <v>LITHIUM</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2953,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="2" t="str">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>lithium</v>
       </c>
       <c r="Q12" s="2">
@@ -2984,7 +2985,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>UPPER(A13)</f>
+        <f t="shared" si="0"/>
         <v>RECYCLED_GLASS</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3027,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="2" t="str">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>recycled_glass</v>
       </c>
       <c r="Q13" s="2">
@@ -3058,7 +3059,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>UPPER(A14)</f>
+        <f t="shared" si="0"/>
         <v>RECYCLED_PLASTIC</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3101,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="2" t="str">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>recycled_plastic</v>
       </c>
       <c r="Q14" s="2">
@@ -3132,7 +3133,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>UPPER(A15)</f>
+        <f t="shared" si="0"/>
         <v>WOOL</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3175,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="2" t="str">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v>wool</v>
       </c>
       <c r="Q15" s="2">
@@ -3206,7 +3207,7 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>UPPER(A16)</f>
+        <f t="shared" si="0"/>
         <v>SEAFOOD</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3249,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="2" t="str">
-        <f>A16</f>
+        <f t="shared" si="1"/>
         <v>seafood</v>
       </c>
       <c r="Q16" s="2">
@@ -3279,7 +3280,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>UPPER(A17)</f>
+        <f t="shared" si="0"/>
         <v>PASSENGERS</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3322,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="2" t="str">
-        <f>A17</f>
+        <f t="shared" si="1"/>
         <v>passengers</v>
       </c>
       <c r="Q17" s="2">
@@ -3348,12 +3349,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>UPPER(A18)</f>
+        <f t="shared" si="0"/>
         <v>COMMUTERS</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3393,7 +3394,7 @@
         <v>331</v>
       </c>
       <c r="P18" s="2" t="str">
-        <f>A18</f>
+        <f t="shared" si="1"/>
         <v>commuters</v>
       </c>
       <c r="Q18" s="2">
@@ -3424,7 +3425,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>UPPER(A19)</f>
+        <f t="shared" si="0"/>
         <v>MILK</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3467,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="2" t="str">
-        <f>A19</f>
+        <f t="shared" si="1"/>
         <v>milk</v>
       </c>
       <c r="Q19" s="2">
@@ -3493,12 +3494,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>UPPER(A20)</f>
+        <f t="shared" si="0"/>
         <v>TOURISTS</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3538,7 +3539,7 @@
         <v>331</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f>A20</f>
+        <f t="shared" si="1"/>
         <v>tourists</v>
       </c>
       <c r="Q20" s="2">
@@ -3569,7 +3570,7 @@
         <v>48</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>UPPER(A21)</f>
+        <f t="shared" si="0"/>
         <v>FRUIT</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3612,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="2" t="str">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>fruit</v>
       </c>
       <c r="Q21" s="2">
@@ -3642,7 +3643,7 @@
         <v>125</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>UPPER(A22)</f>
+        <f t="shared" si="0"/>
         <v>GOODS</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3685,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="2" t="str">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>goods</v>
       </c>
       <c r="Q22" s="2">
@@ -3716,7 +3717,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>UPPER(A23)</f>
+        <f t="shared" si="0"/>
         <v>SAND</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3759,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="2" t="str">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>sand</v>
       </c>
       <c r="Q23" s="2">
@@ -3790,7 +3791,7 @@
         <v>295</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>UPPER(A24)</f>
+        <f t="shared" si="0"/>
         <v>SILICON</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3833,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="2" t="str">
-        <f>A24</f>
+        <f t="shared" si="1"/>
         <v>silicon</v>
       </c>
       <c r="Q24" s="2">
@@ -3864,7 +3865,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>UPPER(A25)</f>
+        <f t="shared" si="0"/>
         <v>PARCELS</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3907,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>parcels</v>
       </c>
       <c r="Q25" s="2">
@@ -3932,12 +3933,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>UPPER(A26)</f>
+        <f t="shared" si="0"/>
         <v>VALUABLES</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3977,7 +3978,7 @@
         <v>331</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f>A26</f>
+        <f t="shared" si="1"/>
         <v>valuables</v>
       </c>
       <c r="Q26" s="2">
@@ -4008,7 +4009,7 @@
         <v>142</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>UPPER(A27)</f>
+        <f t="shared" si="0"/>
         <v>MARINE_SUPPLIES</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -4051,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="2" t="str">
-        <f>A27</f>
+        <f t="shared" si="1"/>
         <v>marine_supplies</v>
       </c>
       <c r="Q27" s="2">
@@ -4081,7 +4082,7 @@
         <v>121</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f>UPPER(A28)</f>
+        <f t="shared" si="0"/>
         <v>ELECTRONICS</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -4124,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="2" t="str">
-        <f>A28</f>
+        <f t="shared" si="1"/>
         <v>electronics</v>
       </c>
       <c r="Q28" s="2">
@@ -4149,12 +4150,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>UPPER(A29)</f>
+        <f t="shared" si="0"/>
         <v>NUCLEAR_WASTE</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4197,7 +4198,7 @@
         <v>331</v>
       </c>
       <c r="P29" s="2" t="str">
-        <f>A29</f>
+        <f t="shared" si="1"/>
         <v>nuclear_waste</v>
       </c>
       <c r="Q29" s="2">
@@ -4227,7 +4228,7 @@
         <v>89</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f>UPPER(A30)</f>
+        <f t="shared" si="0"/>
         <v>CHEMICAL_PRODUCTS</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -4270,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="2" t="str">
-        <f>A30</f>
+        <f t="shared" si="1"/>
         <v>chemical_products</v>
       </c>
       <c r="Q30" s="2">
@@ -4295,12 +4296,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f>UPPER(A31)</f>
+        <f t="shared" si="0"/>
         <v>NUCLEAR_FUELS</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -4343,7 +4344,7 @@
         <v>331</v>
       </c>
       <c r="P31" s="2" t="str">
-        <f>A31</f>
+        <f t="shared" si="1"/>
         <v>nuclear_fuels</v>
       </c>
       <c r="Q31" s="2">
@@ -4374,7 +4375,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f>UPPER(A32)</f>
+        <f t="shared" si="0"/>
         <v>COAL</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4417,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="2" t="str">
-        <f>A32</f>
+        <f t="shared" si="1"/>
         <v>coal</v>
       </c>
       <c r="Q32" s="2">
@@ -4448,7 +4449,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f>UPPER(A33)</f>
+        <f t="shared" si="0"/>
         <v>PLANT_FIBRES</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -4491,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="2" t="str">
-        <f>A33</f>
+        <f t="shared" si="1"/>
         <v>plant_fibres</v>
       </c>
       <c r="Q33" s="2">
@@ -4521,7 +4522,7 @@
         <v>60</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f>UPPER(A34)</f>
+        <f t="shared" ref="B34:B65" si="3">UPPER(A34)</f>
         <v>IRON_ORE</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -4564,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="2" t="str">
-        <f>A34</f>
+        <f t="shared" ref="P34:P63" si="4">A34</f>
         <v>iron_ore</v>
       </c>
       <c r="Q34" s="2">
@@ -4595,7 +4596,7 @@
         <v>103</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f>UPPER(A35)</f>
+        <f t="shared" si="3"/>
         <v>PLASTIC_PRODUCTS</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -4638,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="2" t="str">
-        <f>A35</f>
+        <f t="shared" si="4"/>
         <v>plastic_products</v>
       </c>
       <c r="Q35" s="2">
@@ -4669,7 +4670,7 @@
         <v>72</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f>UPPER(A36)</f>
+        <f t="shared" si="3"/>
         <v>CLAY</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -4712,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="2" t="str">
-        <f>A36</f>
+        <f t="shared" si="4"/>
         <v>clay</v>
       </c>
       <c r="Q36" s="2">
@@ -4743,7 +4744,7 @@
         <v>118</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f>UPPER(A37)</f>
+        <f t="shared" si="3"/>
         <v>PACKAGING</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -4786,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="P37" s="2" t="str">
-        <f>A37</f>
+        <f t="shared" si="4"/>
         <v>packaging</v>
       </c>
       <c r="Q37" s="2">
@@ -4817,7 +4818,7 @@
         <v>81</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f>UPPER(A38)</f>
+        <f t="shared" si="3"/>
         <v>CEMENT</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4860,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="2" t="str">
-        <f>A38</f>
+        <f t="shared" si="4"/>
         <v>cement</v>
       </c>
       <c r="Q38" s="2">
@@ -4891,7 +4892,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f>UPPER(A39)</f>
+        <f t="shared" si="3"/>
         <v>RECYCLED_METAL</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -4934,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="P39" s="2" t="str">
-        <f>A39</f>
+        <f t="shared" si="4"/>
         <v>recycled_metal</v>
       </c>
       <c r="Q39" s="2">
@@ -4964,7 +4965,7 @@
         <v>421</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f>UPPER(A40)</f>
+        <f t="shared" si="3"/>
         <v>ALUMINIUM</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -5007,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="2" t="str">
-        <f>A40</f>
+        <f t="shared" si="4"/>
         <v>aluminium</v>
       </c>
       <c r="Q40" s="2">
@@ -5020,7 +5021,7 @@
         <v>183</v>
       </c>
       <c r="T40" s="2" t="str">
-        <f>C40</f>
+        <f t="shared" ref="T40:T45" si="5">C40</f>
         <v>ALUM</v>
       </c>
       <c r="U40" s="2" t="s">
@@ -5038,7 +5039,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f>UPPER(A41)</f>
+        <f t="shared" si="3"/>
         <v>FERTILIZER</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -5081,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="2" t="str">
-        <f>A41</f>
+        <f t="shared" si="4"/>
         <v>fertilizer</v>
       </c>
       <c r="Q41" s="2">
@@ -5094,7 +5095,7 @@
         <v>198</v>
       </c>
       <c r="T41" s="2" t="str">
-        <f>C41</f>
+        <f t="shared" si="5"/>
         <v>FERT</v>
       </c>
       <c r="U41" s="2" t="s">
@@ -5112,7 +5113,7 @@
         <v>64</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f>UPPER(A42)</f>
+        <f t="shared" si="3"/>
         <v>COPPER_ORE</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -5155,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="2" t="str">
-        <f>A42</f>
+        <f t="shared" si="4"/>
         <v>copper_ore</v>
       </c>
       <c r="Q42" s="2">
@@ -5168,7 +5169,7 @@
         <v>186</v>
       </c>
       <c r="T42" s="2" t="str">
-        <f>C42</f>
+        <f t="shared" si="5"/>
         <v>CORE</v>
       </c>
       <c r="U42" s="2" t="s">
@@ -5186,7 +5187,7 @@
         <v>74</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f>UPPER(A43)</f>
+        <f t="shared" si="3"/>
         <v>POTASH</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -5229,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="2" t="str">
-        <f>A43</f>
+        <f t="shared" si="4"/>
         <v>potash</v>
       </c>
       <c r="Q43" s="2">
@@ -5242,7 +5243,7 @@
         <v>173</v>
       </c>
       <c r="T43" s="2" t="str">
-        <f>C43</f>
+        <f t="shared" si="5"/>
         <v>POTA</v>
       </c>
       <c r="U43" s="2" t="s">
@@ -5260,7 +5261,7 @@
         <v>128</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f>UPPER(A44)</f>
+        <f t="shared" si="3"/>
         <v>VEHICLES</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -5303,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="2" t="str">
-        <f>A44</f>
+        <f t="shared" si="4"/>
         <v>vehicles</v>
       </c>
       <c r="Q44" s="2">
@@ -5316,7 +5317,7 @@
         <v>174</v>
       </c>
       <c r="T44" s="2" t="str">
-        <f>C44</f>
+        <f t="shared" si="5"/>
         <v>VEHI</v>
       </c>
       <c r="U44" s="2" t="s">
@@ -5334,7 +5335,7 @@
         <v>87</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f>UPPER(A45)</f>
+        <f t="shared" si="3"/>
         <v>GLASS_PRODUCTS</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -5377,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="2" t="str">
-        <f>A45</f>
+        <f t="shared" si="4"/>
         <v>glass_products</v>
       </c>
       <c r="Q45" s="2">
@@ -5390,7 +5391,7 @@
         <v>182</v>
       </c>
       <c r="T45" s="2" t="str">
-        <f>C45</f>
+        <f t="shared" si="5"/>
         <v>GLAS</v>
       </c>
       <c r="U45" s="2" t="s">
@@ -5408,7 +5409,7 @@
         <v>66</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f>UPPER(A46)</f>
+        <f t="shared" si="3"/>
         <v>CRUDE_OIL</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -5451,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="2" t="str">
-        <f>A46</f>
+        <f t="shared" si="4"/>
         <v>crude_oil</v>
       </c>
       <c r="Q46" s="2">
@@ -5481,7 +5482,7 @@
         <v>140</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f>UPPER(A47)</f>
+        <f t="shared" si="3"/>
         <v>ENGINEERING_SUPPLIES</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -5524,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="P47" s="2" t="str">
-        <f>A47</f>
+        <f t="shared" si="4"/>
         <v>engineering_supplies</v>
       </c>
       <c r="Q47" s="2">
@@ -5554,7 +5555,7 @@
         <v>132</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f>UPPER(A48)</f>
+        <f t="shared" si="3"/>
         <v>ALCOHOL</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -5597,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="2" t="str">
-        <f>A48</f>
+        <f t="shared" si="4"/>
         <v>alcohol</v>
       </c>
       <c r="Q48" s="2">
@@ -5627,7 +5628,7 @@
         <v>130</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f>UPPER(A49)</f>
+        <f t="shared" si="3"/>
         <v>FOOD</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -5670,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="P49" s="2" t="str">
-        <f>A49</f>
+        <f t="shared" si="4"/>
         <v>food</v>
       </c>
       <c r="Q49" s="2">
@@ -5701,7 +5702,7 @@
         <v>62</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f>UPPER(A50)</f>
+        <f t="shared" si="3"/>
         <v>BAUXITE</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -5744,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="2" t="str">
-        <f>A50</f>
+        <f t="shared" si="4"/>
         <v>bauxite</v>
       </c>
       <c r="Q50" s="2">
@@ -5775,7 +5776,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f>UPPER(A51)</f>
+        <f t="shared" si="3"/>
         <v>GRAIN</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -5818,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="P51" s="2" t="str">
-        <f>A51</f>
+        <f t="shared" si="4"/>
         <v>grain</v>
       </c>
       <c r="Q51" s="2">
@@ -5849,7 +5850,7 @@
         <v>138</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f>UPPER(A52)</f>
+        <f t="shared" si="3"/>
         <v>FARM_SUPPLIES</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -5892,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="P52" s="2" t="str">
-        <f>A52</f>
+        <f t="shared" si="4"/>
         <v>farm_supplies</v>
       </c>
       <c r="Q52" s="2">
@@ -5922,7 +5923,7 @@
         <v>68</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f>UPPER(A53)</f>
+        <f t="shared" si="3"/>
         <v>AGGREGATES</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -5965,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="2" t="str">
-        <f>A53</f>
+        <f t="shared" si="4"/>
         <v>aggregates</v>
       </c>
       <c r="Q53" s="2">
@@ -5995,7 +5996,7 @@
         <v>94</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f>UPPER(A54)</f>
+        <f t="shared" si="3"/>
         <v>COPPER</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -6038,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="P54" s="2" t="str">
-        <f>A54</f>
+        <f t="shared" si="4"/>
         <v>copper</v>
       </c>
       <c r="Q54" s="2">
@@ -6068,7 +6069,7 @@
         <v>134</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f>UPPER(A55)</f>
+        <f t="shared" si="3"/>
         <v>TEXTILES</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -6111,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="P55" s="2" t="str">
-        <f>A55</f>
+        <f t="shared" si="4"/>
         <v>textiles</v>
       </c>
       <c r="Q55" s="2">
@@ -6142,7 +6143,7 @@
         <v>83</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f>UPPER(A56)</f>
+        <f t="shared" si="3"/>
         <v>PETROCHEMICALS</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -6185,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="P56" s="2" t="str">
-        <f>A56</f>
+        <f t="shared" si="4"/>
         <v>petrochemicals</v>
       </c>
       <c r="Q56" s="2">
@@ -6215,7 +6216,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f>UPPER(A57)</f>
+        <f t="shared" si="3"/>
         <v>LOGS</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -6258,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="2" t="str">
-        <f>A57</f>
+        <f t="shared" si="4"/>
         <v>logs</v>
       </c>
       <c r="Q57" s="2">
@@ -6288,7 +6289,7 @@
         <v>136</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f>UPPER(A58)</f>
+        <f t="shared" si="3"/>
         <v>CONSTRUCTION_MATERIALS</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -6331,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="P58" s="2" t="str">
-        <f>A58</f>
+        <f t="shared" si="4"/>
         <v>construction_materials</v>
       </c>
       <c r="Q58" s="2">
@@ -6361,7 +6362,7 @@
         <v>85</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f>UPPER(A59)</f>
+        <f t="shared" si="3"/>
         <v>PETROLEUM_FUELS</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -6404,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="P59" s="2" t="str">
-        <f>A59</f>
+        <f t="shared" si="4"/>
         <v>petroleum_fuels</v>
       </c>
       <c r="Q59" s="2">
@@ -6434,7 +6435,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f>UPPER(A60)</f>
+        <f t="shared" si="3"/>
         <v>LIVESTOCK</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -6477,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="P60" s="2" t="str">
-        <f>A60</f>
+        <f t="shared" si="4"/>
         <v>livestock</v>
       </c>
       <c r="Q60" s="2">
@@ -6508,7 +6509,7 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="str">
-        <f>UPPER(A61)</f>
+        <f t="shared" si="3"/>
         <v>RECYCLABLES</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -6551,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="P61" s="2" t="str">
-        <f>A61</f>
+        <f t="shared" si="4"/>
         <v>recyclables</v>
       </c>
       <c r="Q61" s="2">
@@ -6582,7 +6583,7 @@
         <v>188</v>
       </c>
       <c r="B62" s="2" t="str">
-        <f>UPPER(A62)</f>
+        <f t="shared" si="3"/>
         <v>MINERAL_ORE</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -6625,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="P62" s="2" t="str">
-        <f>A62</f>
+        <f t="shared" si="4"/>
         <v>mineral_ore</v>
       </c>
       <c r="Q62" s="2">
@@ -6650,12 +6651,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>423</v>
       </c>
       <c r="B63" s="2" t="str">
-        <f>UPPER(A63)</f>
+        <f t="shared" si="3"/>
         <v>NATURAL_GAS</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -6668,7 +6669,7 @@
         <v>331</v>
       </c>
       <c r="P63" s="2" t="str">
-        <f>A63</f>
+        <f t="shared" si="4"/>
         <v>natural_gas</v>
       </c>
       <c r="S63" s="2" t="s">
@@ -6680,6 +6681,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W63" xr:uid="{A3E2E412-BEDD-4897-B555-855B4B690393}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W63">
       <sortCondition ref="E1:E63"/>
     </sortState>
@@ -12255,8 +12261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E746A757-9EE7-49DE-BD8B-09A5ADF0C276}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16528,7 +16534,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17024,6 +17030,9 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>323</v>
       </c>

--- a/docs/otis.xlsx
+++ b/docs/otis.xlsx
@@ -8,43 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\OTIS_RI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24230BB-7122-4DFE-8958-FC888D942E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E1E242-C9D7-4604-9441-848497E69492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="1" xr2:uid="{F14238E8-7359-4A23-95C3-B534CD4647A9}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="934" activeTab="5" xr2:uid="{F14238E8-7359-4A23-95C3-B534CD4647A9}"/>
   </bookViews>
   <sheets>
     <sheet name="cargo" sheetId="1" r:id="rId1"/>
     <sheet name="industries" sheetId="3" r:id="rId2"/>
-    <sheet name="explosives" sheetId="38" r:id="rId3"/>
-    <sheet name="construction_materials" sheetId="37" r:id="rId4"/>
-    <sheet name="manufacturing_supplies" sheetId="36" r:id="rId5"/>
-    <sheet name="marine_supplies" sheetId="35" r:id="rId6"/>
-    <sheet name="farming_supplies" sheetId="34" r:id="rId7"/>
-    <sheet name="engineering_supplies" sheetId="33" r:id="rId8"/>
-    <sheet name="food_processing" sheetId="32" r:id="rId9"/>
-    <sheet name="consumer_goods" sheetId="31" r:id="rId10"/>
-    <sheet name="components" sheetId="30" r:id="rId11"/>
-    <sheet name="enrichment" sheetId="26" r:id="rId12"/>
-    <sheet name="reclamation" sheetId="25" r:id="rId13"/>
-    <sheet name="products" sheetId="24" r:id="rId14"/>
-    <sheet name="materials" sheetId="23" r:id="rId15"/>
-    <sheet name="chemicals" sheetId="22" r:id="rId16"/>
-    <sheet name="refinement" sheetId="21" r:id="rId17"/>
-    <sheet name="purification" sheetId="20" r:id="rId18"/>
-    <sheet name="metals" sheetId="19" r:id="rId19"/>
-    <sheet name="forestry" sheetId="18" r:id="rId20"/>
-    <sheet name="cultivation" sheetId="17" r:id="rId21"/>
-    <sheet name="husbandry" sheetId="16" r:id="rId22"/>
-    <sheet name="mining" sheetId="15" r:id="rId23"/>
-    <sheet name="offshore_excavation" sheetId="14" r:id="rId24"/>
-    <sheet name="inland_excavation" sheetId="13" r:id="rId25"/>
-    <sheet name="offshore_fisheries" sheetId="12" r:id="rId26"/>
-    <sheet name="inland_fisheries" sheetId="11" r:id="rId27"/>
-    <sheet name="offshore_extraction" sheetId="10" r:id="rId28"/>
-    <sheet name="inland_extraction" sheetId="4" r:id="rId29"/>
+    <sheet name="houses" sheetId="39" r:id="rId3"/>
+    <sheet name="retail" sheetId="40" r:id="rId4"/>
+    <sheet name="services" sheetId="41" r:id="rId5"/>
+    <sheet name="residential" sheetId="42" r:id="rId6"/>
+    <sheet name="explosives" sheetId="38" r:id="rId7"/>
+    <sheet name="construction_materials" sheetId="37" r:id="rId8"/>
+    <sheet name="manufacturing_supplies" sheetId="36" r:id="rId9"/>
+    <sheet name="marine_supplies" sheetId="35" r:id="rId10"/>
+    <sheet name="farming_supplies" sheetId="34" r:id="rId11"/>
+    <sheet name="engineering_supplies" sheetId="33" r:id="rId12"/>
+    <sheet name="food_processing" sheetId="32" r:id="rId13"/>
+    <sheet name="consumer_goods" sheetId="31" r:id="rId14"/>
+    <sheet name="components" sheetId="30" r:id="rId15"/>
+    <sheet name="enrichment" sheetId="26" r:id="rId16"/>
+    <sheet name="reclamation" sheetId="25" r:id="rId17"/>
+    <sheet name="products" sheetId="24" r:id="rId18"/>
+    <sheet name="materials" sheetId="23" r:id="rId19"/>
+    <sheet name="chemicals" sheetId="22" r:id="rId20"/>
+    <sheet name="refinement" sheetId="21" r:id="rId21"/>
+    <sheet name="purification" sheetId="20" r:id="rId22"/>
+    <sheet name="metals" sheetId="19" r:id="rId23"/>
+    <sheet name="forestry" sheetId="18" r:id="rId24"/>
+    <sheet name="cultivation" sheetId="17" r:id="rId25"/>
+    <sheet name="husbandry" sheetId="16" r:id="rId26"/>
+    <sheet name="mining" sheetId="15" r:id="rId27"/>
+    <sheet name="offshore_excavation" sheetId="14" r:id="rId28"/>
+    <sheet name="inland_excavation" sheetId="13" r:id="rId29"/>
+    <sheet name="offshore_fisheries" sheetId="12" r:id="rId30"/>
+    <sheet name="inland_fisheries" sheetId="11" r:id="rId31"/>
+    <sheet name="offshore_extraction" sheetId="10" r:id="rId32"/>
+    <sheet name="inland_extraction" sheetId="4" r:id="rId33"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cargo!$A$1:$W$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cargo!$A$1:$W$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">houses!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">industries!$A$1:$P$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="567">
   <si>
     <t>cargo_icon_x</t>
   </si>
@@ -1712,6 +1717,63 @@
   </si>
   <si>
     <t>{SIGNED_WORD} pallet{P 0 "" s} of Explosives</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>(4 - Distribution)  Retail</t>
+  </si>
+  <si>
+    <t>house_item_name</t>
+  </si>
+  <si>
+    <t>house_ID</t>
+  </si>
+  <si>
+    <t>house_population</t>
+  </si>
+  <si>
+    <t>house_layout</t>
+  </si>
+  <si>
+    <t>str_house</t>
+  </si>
+  <si>
+    <t>local_authority_impact</t>
+  </si>
+  <si>
+    <t>removal_cost_multiplier</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>accept_amount</t>
+  </si>
+  <si>
+    <t>produce_amount</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Retail (OTIS)</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>Services (OTIS)</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>Residential (OTIS)</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2178,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U11" sqref="U11"/>
+      <selection pane="topRight" activeCell="B20" sqref="A1:W64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6776,7 +6838,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W63" xr:uid="{A3E2E412-BEDD-4897-B555-855B4B690393}">
+  <autoFilter ref="A1:W64" xr:uid="{A3E2E412-BEDD-4897-B555-855B4B690393}">
     <filterColumn colId="14">
       <filters>
         <filter val="TRUE"/>
@@ -6791,6 +6853,2786 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F82EEB-BA04-4F06-A7A1-C00FA8E16104}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2+100</f>
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="7">
+        <v>210</v>
+      </c>
+      <c r="H2" s="7">
+        <v>220</v>
+      </c>
+      <c r="I2" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="7">
+        <f>C2+1</f>
+        <v>11</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D32" si="0">C3+100</f>
+        <v>111</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="7">
+        <f>G2+1</f>
+        <v>211</v>
+      </c>
+      <c r="H3" s="7">
+        <f>H2+1</f>
+        <v>221</v>
+      </c>
+      <c r="I3" s="7">
+        <f>I2+1</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C32" si="1">C3+1</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:I9" si="2">G3+1</f>
+        <v>212</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7">
+        <v>240</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7">
+        <v>241</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="7">
+        <v>242</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="7">
+        <v>250</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06367708-D4B7-4B1E-97E0-CFF6D620A725}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2+100</f>
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="7">
+        <v>210</v>
+      </c>
+      <c r="H2" s="7">
+        <v>220</v>
+      </c>
+      <c r="I2" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="7">
+        <f>C2+1</f>
+        <v>11</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D32" si="0">C3+100</f>
+        <v>111</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="7">
+        <f>G2+1</f>
+        <v>211</v>
+      </c>
+      <c r="H3" s="7">
+        <f>H2+1</f>
+        <v>221</v>
+      </c>
+      <c r="I3" s="7">
+        <f>I2+1</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C32" si="1">C3+1</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:I9" si="2">G3+1</f>
+        <v>212</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7">
+        <v>240</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7">
+        <v>241</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="7">
+        <v>242</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="7">
+        <v>250</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712BE060-0B0B-4D15-AC6F-09E79CEA6F96}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2+100</f>
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="7">
+        <v>210</v>
+      </c>
+      <c r="H2" s="7">
+        <v>220</v>
+      </c>
+      <c r="I2" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="7">
+        <f>C2+1</f>
+        <v>11</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D32" si="0">C3+100</f>
+        <v>111</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="7">
+        <f>G2+1</f>
+        <v>211</v>
+      </c>
+      <c r="H3" s="7">
+        <f>H2+1</f>
+        <v>221</v>
+      </c>
+      <c r="I3" s="7">
+        <f>I2+1</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C32" si="1">C3+1</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:I9" si="2">G3+1</f>
+        <v>212</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7">
+        <v>240</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7">
+        <v>241</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="7">
+        <v>242</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="7">
+        <v>250</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA647A34-BF87-49AB-835B-A3EE55B7867D}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="4" width="16" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2+100</f>
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="7">
+        <v>210</v>
+      </c>
+      <c r="H2" s="7">
+        <v>220</v>
+      </c>
+      <c r="I2" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="7">
+        <f>C2+1</f>
+        <v>11</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D32" si="0">C3+100</f>
+        <v>111</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="7">
+        <f>G2+1</f>
+        <v>211</v>
+      </c>
+      <c r="H3" s="7">
+        <f>H2+1</f>
+        <v>221</v>
+      </c>
+      <c r="I3" s="7">
+        <f>I2+1</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C32" si="1">C3+1</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:I9" si="2">G3+1</f>
+        <v>212</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="7">
+        <v>240</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7">
+        <v>241</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="7">
+        <v>242</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="7">
+        <v>250</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EFBEE7-EA79-495B-9D02-FDE7AA24B765}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -7503,7 +10345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA47AC9-1F2B-4927-B86B-683C496B5120}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -8216,7 +11058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328BD17D-4D9A-49E6-A3D8-3FD6899D2CAF}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -8902,7 +11744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD43B11B-C4B3-46A2-928E-45023D36067E}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -9591,7 +12433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AA59DD-7C8F-43BA-9C36-FD642FFBC869}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -10304,7 +13146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29E089B-71BA-47CB-8550-378AA92E4918}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -10999,7 +13841,1612 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B42E960-D72E-48CD-A396-7A854E37C965}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="16.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f t="shared" ref="B2:B30" si="0">UPPER(A2)</f>
+        <v>INLAND_EXTRACTION</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C30" si="1">A2</f>
+        <v>inland_extraction</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>152</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f t="shared" ref="J2:J30" si="2">E2</f>
+        <v>extraction</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSHORE_EXTRACTION</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>offshore_extraction</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>152</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>extraction</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INLAND_FISHERIES</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>inland_fisheries</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>99</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>extraction</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSHORE_FISHERIES</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>offshore_fisheries</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7">
+        <v>99</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>extraction</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>INLAND_EXCAVATION</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>inland_excavation</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>extraction</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OFFSHORE_EXCAVATION</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>offshore_excavation</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>extraction</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>MINING</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>mining</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>116</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>extraction</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>HUSBANDRY</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>husbandry</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>107</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>extraction</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CULTIVATION</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>cultivation</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7">
+        <v>51</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>extraction</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FORESTRY</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>forestry</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>85</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>extraction</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPONENTS</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>components</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>73</v>
+      </c>
+      <c r="H12" s="7">
+        <v>144</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CONSUMER_GOODS</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>consumer_goods</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>74</v>
+      </c>
+      <c r="H13" s="7">
+        <v>37</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FOOD_PROCESSING</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>food_processing</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>75</v>
+      </c>
+      <c r="H14" s="7">
+        <v>87</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TEXTILES</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>textiles</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>76</v>
+      </c>
+      <c r="H15" s="7">
+        <v>92</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ENGINEERING_SUPPLIES</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>engineering_supplies</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>77</v>
+      </c>
+      <c r="H16" s="7">
+        <v>139</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FARMING_SUPPLIES</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>farming_supplies</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7">
+        <v>139</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>MARINE_SUPPLIES</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>marine_supplies</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7">
+        <v>139</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>MANUFACTURING_SUPPLIES</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>manufacturing_supplies</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>80</v>
+      </c>
+      <c r="H19" s="7">
+        <v>139</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CONSTRUCTION_MATERIALS</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>construction_materials</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>81</v>
+      </c>
+      <c r="H20" s="7">
+        <v>139</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>METALS</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>metals</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>37</v>
+      </c>
+      <c r="H21" s="7">
+        <v>36</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>processing</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PURIFICATION</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>purification</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>38</v>
+      </c>
+      <c r="H22" s="7">
+        <v>152</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>processing</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>REFINEMENT</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refinement</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
+        <v>146</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>processing</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CHEMICALS</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>chemicals</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>40</v>
+      </c>
+      <c r="H24" s="7">
+        <v>81</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>processing</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>MATERIALS</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>materials</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>41</v>
+      </c>
+      <c r="H25" s="7">
+        <v>58</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>processing</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PRODUCTS</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>products</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>42</v>
+      </c>
+      <c r="H26" s="7">
+        <v>166</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>processing</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>RECLAMATION</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>reclamation</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>43</v>
+      </c>
+      <c r="H27" s="7">
+        <v>59</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>processing</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ENRICHMENT</v>
+      </c>
+      <c r="C28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>enrichment</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>44</v>
+      </c>
+      <c r="H28" s="7">
+        <v>171</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>processing</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>EXPLOSIVES</v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>explosives</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>82</v>
+      </c>
+      <c r="H29" s="8">
+        <v>148</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>manufacturing</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>RETAIL</v>
+      </c>
+      <c r="C30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>retail</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>250</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>distribution</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P28" xr:uid="{1B42E960-D72E-48CD-A396-7A854E37C965}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P28">
+      <sortCondition ref="E1:E28"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72784F89-7D20-4EA3-9486-83CA0C2B5AB9}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -11682,7 +16129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D3862C-1C05-4C93-BB3C-C5981BA42C15}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -12368,7 +16815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2912AD7-5A1B-4578-ADEA-E06095E763F0}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -13066,7 +17513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E746A757-9EE7-49DE-BD8B-09A5ADF0C276}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -13770,1576 +18217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B42E960-D72E-48CD-A396-7A854E37C965}">
-  <dimension ref="A1:P29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="5" width="20.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="16.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="5" t="str">
-        <f t="shared" ref="B2:B29" si="0">UPPER(A2)</f>
-        <v>INLAND_EXTRACTION</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C29" si="1">A2</f>
-        <v>inland_extraction</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>152</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J2" s="3" t="str">
-        <f t="shared" ref="J2:J29" si="2">E2</f>
-        <v>extraction</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>OFFSHORE_EXTRACTION</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>offshore_extraction</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>152</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>extraction</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>INLAND_FISHERIES</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>inland_fisheries</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>99</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>extraction</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>OFFSHORE_FISHERIES</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>offshore_fisheries</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7">
-        <v>99</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>extraction</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>INLAND_EXCAVATION</v>
-      </c>
-      <c r="C6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>inland_excavation</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>5</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>extraction</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>OFFSHORE_EXCAVATION</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>offshore_excavation</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>extraction</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>MINING</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>mining</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7">
-        <v>116</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>extraction</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>HUSBANDRY</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>husbandry</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>8</v>
-      </c>
-      <c r="H9" s="7">
-        <v>107</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>extraction</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>CULTIVATION</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>cultivation</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>9</v>
-      </c>
-      <c r="H10" s="7">
-        <v>51</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>extraction</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>FORESTRY</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>forestry</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7">
-        <v>85</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>extraction</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>COMPONENTS</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>components</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>73</v>
-      </c>
-      <c r="H12" s="7">
-        <v>144</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>CONSUMER_GOODS</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>consumer_goods</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>74</v>
-      </c>
-      <c r="H13" s="7">
-        <v>37</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="B14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>FOOD_PROCESSING</v>
-      </c>
-      <c r="C14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>food_processing</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>75</v>
-      </c>
-      <c r="H14" s="7">
-        <v>87</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>TEXTILES</v>
-      </c>
-      <c r="C15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>textiles</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>76</v>
-      </c>
-      <c r="H15" s="7">
-        <v>92</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ENGINEERING_SUPPLIES</v>
-      </c>
-      <c r="C16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>engineering_supplies</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>77</v>
-      </c>
-      <c r="H16" s="7">
-        <v>139</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>FARMING_SUPPLIES</v>
-      </c>
-      <c r="C17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>farming_supplies</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>78</v>
-      </c>
-      <c r="H17" s="7">
-        <v>139</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>MARINE_SUPPLIES</v>
-      </c>
-      <c r="C18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>marine_supplies</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>79</v>
-      </c>
-      <c r="H18" s="7">
-        <v>139</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>MANUFACTURING_SUPPLIES</v>
-      </c>
-      <c r="C19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>manufacturing_supplies</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>80</v>
-      </c>
-      <c r="H19" s="7">
-        <v>139</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>CONSTRUCTION_MATERIALS</v>
-      </c>
-      <c r="C20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>construction_materials</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>81</v>
-      </c>
-      <c r="H20" s="7">
-        <v>139</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>METALS</v>
-      </c>
-      <c r="C21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>metals</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>37</v>
-      </c>
-      <c r="H21" s="7">
-        <v>36</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>processing</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>PURIFICATION</v>
-      </c>
-      <c r="C22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>purification</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>38</v>
-      </c>
-      <c r="H22" s="7">
-        <v>152</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>processing</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>REFINEMENT</v>
-      </c>
-      <c r="C23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>refinement</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>39</v>
-      </c>
-      <c r="H23" s="7">
-        <v>146</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>processing</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>CHEMICALS</v>
-      </c>
-      <c r="C24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>chemicals</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>40</v>
-      </c>
-      <c r="H24" s="7">
-        <v>81</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>processing</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>MATERIALS</v>
-      </c>
-      <c r="C25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>materials</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>41</v>
-      </c>
-      <c r="H25" s="7">
-        <v>58</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>processing</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>PRODUCTS</v>
-      </c>
-      <c r="C26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>products</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>42</v>
-      </c>
-      <c r="H26" s="7">
-        <v>166</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>processing</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>RECLAMATION</v>
-      </c>
-      <c r="C27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>reclamation</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>43</v>
-      </c>
-      <c r="H27" s="7">
-        <v>59</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>processing</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>ENRICHMENT</v>
-      </c>
-      <c r="C28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>enrichment</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>44</v>
-      </c>
-      <c r="H28" s="7">
-        <v>171</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="J28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>processing</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>EXPLOSIVES</v>
-      </c>
-      <c r="C29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>explosives</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>82</v>
-      </c>
-      <c r="H29" s="8">
-        <v>148</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>manufacturing</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:P28" xr:uid="{1B42E960-D72E-48CD-A396-7A854E37C965}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P28">
-      <sortCondition ref="E1:E28"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70896911-D0F5-4CDB-8280-34052321C0DE}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -16019,7 +18897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C483F2-E1FD-4717-8416-04433D465C79}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -16705,7 +19583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE23306-C519-47FE-B232-F577B890F380}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -17391,7 +20269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1894482D-9EDC-4DB2-8022-ED06971DA57B}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -18092,7 +20970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827E130A-7E37-4504-BFDA-6EB77D5428AA}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -18778,7 +21656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCE5CF-D337-45DF-9B64-EE48AEEC0C3B}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -19464,7 +22342,197 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5141CEA-A651-463C-86AF-189D43CE7E9D}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="20.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <f t="shared" ref="B2:B3" si="0">UPPER(A2)</f>
+        <v>RETAIL</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f t="shared" ref="C2:C3" si="1">A2</f>
+        <v>retail</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>250</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SERVICES</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>services</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>251</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4" si="2">UPPER(A4)</f>
+        <v>RESIDENTIAL</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" ref="C4" si="3">A4</f>
+        <v>residential</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>252</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{1B42E960-D72E-48CD-A396-7A854E37C965}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K1">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41DAEC2-8D15-4FA0-B078-FEB65D7E2CC6}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -20144,7 +23212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C55F90-F0FF-4D03-A840-E85E92EA196F}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -20824,7 +23892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F3969A-F546-44C3-8A90-783FF4B7F4E0}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -21504,7 +24572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9683C79-C2E1-4100-B198-E6337A4D678E}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -22184,7 +25252,529 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3755C0-10BE-42F8-84BF-CEB35B568EF4}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1FD3DD-8DD8-4C0C-BD42-7027135D7500}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF27DA83-96FE-4469-AF5F-C5B62A6D118D}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="3:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34161D7B-7385-43F7-A581-78F09484DE56}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -22873,7 +26463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397AC370-EC0C-4A26-B459-7C1E1422DD13}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -23562,7 +27152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B803A21D-EBAB-4446-9B5E-F3AEC8E0542D}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -24249,2784 +27839,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F82EEB-BA04-4F06-A7A1-C00FA8E16104}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="7">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <f>C2+100</f>
-        <v>110</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="7">
-        <v>210</v>
-      </c>
-      <c r="H2" s="7">
-        <v>220</v>
-      </c>
-      <c r="I2" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="7">
-        <f>C2+1</f>
-        <v>11</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D32" si="0">C3+100</f>
-        <v>111</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="7">
-        <f>G2+1</f>
-        <v>211</v>
-      </c>
-      <c r="H3" s="7">
-        <f>H2+1</f>
-        <v>221</v>
-      </c>
-      <c r="I3" s="7">
-        <f>I2+1</f>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C32" si="1">C3+1</f>
-        <v>12</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:I9" si="2">G3+1</f>
-        <v>212</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="2"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>213</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="2"/>
-        <v>223</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="2"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>214</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="2"/>
-        <v>224</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="2"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="2"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="2"/>
-        <v>226</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>217</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="2"/>
-        <v>227</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" s="7">
-        <v>240</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="7">
-        <v>241</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="7">
-        <v>242</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G13" s="7">
-        <v>250</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C27" s="7">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C29" s="7">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C30" s="7">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C31" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32" s="7">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06367708-D4B7-4B1E-97E0-CFF6D620A725}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="7">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <f>C2+100</f>
-        <v>110</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="7">
-        <v>210</v>
-      </c>
-      <c r="H2" s="7">
-        <v>220</v>
-      </c>
-      <c r="I2" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="7">
-        <f>C2+1</f>
-        <v>11</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D32" si="0">C3+100</f>
-        <v>111</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="7">
-        <f>G2+1</f>
-        <v>211</v>
-      </c>
-      <c r="H3" s="7">
-        <f>H2+1</f>
-        <v>221</v>
-      </c>
-      <c r="I3" s="7">
-        <f>I2+1</f>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C32" si="1">C3+1</f>
-        <v>12</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:I9" si="2">G3+1</f>
-        <v>212</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="2"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>213</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="2"/>
-        <v>223</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="2"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>214</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="2"/>
-        <v>224</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="2"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="2"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="2"/>
-        <v>226</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>217</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="2"/>
-        <v>227</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" s="7">
-        <v>240</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="7">
-        <v>241</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="7">
-        <v>242</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G13" s="7">
-        <v>250</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C27" s="7">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C29" s="7">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C30" s="7">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C31" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32" s="7">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712BE060-0B0B-4D15-AC6F-09E79CEA6F96}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="7">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <f>C2+100</f>
-        <v>110</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="7">
-        <v>210</v>
-      </c>
-      <c r="H2" s="7">
-        <v>220</v>
-      </c>
-      <c r="I2" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="7">
-        <f>C2+1</f>
-        <v>11</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D32" si="0">C3+100</f>
-        <v>111</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="7">
-        <f>G2+1</f>
-        <v>211</v>
-      </c>
-      <c r="H3" s="7">
-        <f>H2+1</f>
-        <v>221</v>
-      </c>
-      <c r="I3" s="7">
-        <f>I2+1</f>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C32" si="1">C3+1</f>
-        <v>12</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:I9" si="2">G3+1</f>
-        <v>212</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="2"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>213</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="2"/>
-        <v>223</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="2"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>214</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="2"/>
-        <v>224</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="2"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="2"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="2"/>
-        <v>226</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>217</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="2"/>
-        <v>227</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" s="7">
-        <v>240</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="7">
-        <v>241</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="7">
-        <v>242</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G13" s="7">
-        <v>250</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C27" s="7">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C29" s="7">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C30" s="7">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C31" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32" s="7">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA647A34-BF87-49AB-835B-A3EE55B7867D}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="4" width="16" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="7">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <f>C2+100</f>
-        <v>110</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="7">
-        <v>210</v>
-      </c>
-      <c r="H2" s="7">
-        <v>220</v>
-      </c>
-      <c r="I2" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="7">
-        <f>C2+1</f>
-        <v>11</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D32" si="0">C3+100</f>
-        <v>111</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="7">
-        <f>G2+1</f>
-        <v>211</v>
-      </c>
-      <c r="H3" s="7">
-        <f>H2+1</f>
-        <v>221</v>
-      </c>
-      <c r="I3" s="7">
-        <f>I2+1</f>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C32" si="1">C3+1</f>
-        <v>12</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:I9" si="2">G3+1</f>
-        <v>212</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="2"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>213</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="2"/>
-        <v>223</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="2"/>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>214</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="2"/>
-        <v>224</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="2"/>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="2"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="2"/>
-        <v>226</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="2"/>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>217</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="2"/>
-        <v>227</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="2"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" s="7">
-        <v>240</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="7">
-        <v>241</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="7">
-        <v>242</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G13" s="7">
-        <v>250</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C27" s="7">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C29" s="7">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C30" s="7">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C31" s="7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32" s="7">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/otis.xlsx
+++ b/docs/otis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\OTIS_RI\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E1E242-C9D7-4604-9441-848497E69492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E704B9-443E-4AFE-AFBC-722A9E31BD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="934" activeTab="5" xr2:uid="{F14238E8-7359-4A23-95C3-B534CD4647A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="1" xr2:uid="{F14238E8-7359-4A23-95C3-B534CD4647A9}"/>
   </bookViews>
   <sheets>
     <sheet name="cargo" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="566">
   <si>
     <t>cargo_icon_x</t>
   </si>
@@ -1720,9 +1720,6 @@
   </si>
   <si>
     <t>retail</t>
-  </si>
-  <si>
-    <t>(4 - Distribution)  Retail</t>
   </si>
   <si>
     <t>house_item_name</t>
@@ -13843,11 +13840,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B42E960-D72E-48CD-A396-7A854E37C965}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13922,11 +13919,11 @@
         <v>324</v>
       </c>
       <c r="B2" s="5" t="str">
-        <f t="shared" ref="B2:B30" si="0">UPPER(A2)</f>
+        <f t="shared" ref="B2:B29" si="0">UPPER(A2)</f>
         <v>INLAND_EXTRACTION</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C30" si="1">A2</f>
+        <f t="shared" ref="C2:C29" si="1">A2</f>
         <v>inland_extraction</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -13948,7 +13945,7 @@
         <v>306</v>
       </c>
       <c r="J2" s="3" t="str">
-        <f t="shared" ref="J2:J30" si="2">E2</f>
+        <f t="shared" ref="J2:J29" si="2">E2</f>
         <v>extraction</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -15399,41 +15396,6 @@
       </c>
       <c r="P29" s="3" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>RETAIL</v>
-      </c>
-      <c r="C30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>retail</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>250</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>distribution</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -22365,7 +22327,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>283</v>
@@ -22383,22 +22345,22 @@
         <v>321</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -22432,18 +22394,18 @@
         <v>296</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -22472,18 +22434,18 @@
         <v>296</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" ref="B4" si="2">UPPER(A4)</f>
@@ -22512,13 +22474,13 @@
         <v>296</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -25273,13 +25235,13 @@
         <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25287,13 +25249,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25301,7 +25263,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
@@ -25315,7 +25277,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -25329,7 +25291,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>34</v>
@@ -25343,7 +25305,7 @@
         <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
@@ -25357,7 +25319,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25365,7 +25327,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25373,7 +25335,7 @@
         <v>131</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25381,7 +25343,7 @@
         <v>137</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25465,13 +25427,13 @@
         <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25479,13 +25441,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25493,7 +25455,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
@@ -25507,7 +25469,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -25521,7 +25483,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>34</v>
@@ -25535,7 +25497,7 @@
         <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
@@ -25549,7 +25511,7 @@
         <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25557,7 +25519,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25626,7 +25588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF27DA83-96FE-4469-AF5F-C5B62A6D118D}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -25643,13 +25605,13 @@
         <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25657,13 +25619,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -25671,7 +25633,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
@@ -25685,7 +25647,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
